--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_36ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3327,28 +3327,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1854.727549346564</v>
+        <v>2000.359736010103</v>
       </c>
       <c r="AB2" t="n">
-        <v>2537.72005782054</v>
+        <v>2736.980440452228</v>
       </c>
       <c r="AC2" t="n">
-        <v>2295.523617214619</v>
+        <v>2475.766868591642</v>
       </c>
       <c r="AD2" t="n">
-        <v>1854727.549346564</v>
+        <v>2000359.736010103</v>
       </c>
       <c r="AE2" t="n">
-        <v>2537720.05782054</v>
+        <v>2736980.440452228</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.462863773465922e-07</v>
+        <v>1.261634148799378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.14891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>2295523.617214619</v>
+        <v>2475766.868591642</v>
       </c>
     </row>
     <row r="3">
@@ -3433,28 +3433,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1101.467876438902</v>
+        <v>1205.442126284118</v>
       </c>
       <c r="AB3" t="n">
-        <v>1507.076941876869</v>
+        <v>1649.339097535261</v>
       </c>
       <c r="AC3" t="n">
-        <v>1363.243633739912</v>
+        <v>1491.928488928457</v>
       </c>
       <c r="AD3" t="n">
-        <v>1101467.876438902</v>
+        <v>1205442.126284118</v>
       </c>
       <c r="AE3" t="n">
-        <v>1507076.941876869</v>
+        <v>1649339.097535261</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.049370028554698e-06</v>
+        <v>1.774012099026064e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.30941358024691</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363243.633739912</v>
+        <v>1491928.488928457</v>
       </c>
     </row>
     <row r="4">
@@ -3539,28 +3539,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>931.4806338036137</v>
+        <v>1025.040399444249</v>
       </c>
       <c r="AB4" t="n">
-        <v>1274.492897195398</v>
+        <v>1402.505496110466</v>
       </c>
       <c r="AC4" t="n">
-        <v>1152.857083849084</v>
+        <v>1268.652339990509</v>
       </c>
       <c r="AD4" t="n">
-        <v>931480.6338036137</v>
+        <v>1025040.399444249</v>
       </c>
       <c r="AE4" t="n">
-        <v>1274492.897195398</v>
+        <v>1402505.496110466</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.169059448257223e-06</v>
+        <v>1.976353001567498e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.33024691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>1152857.083849084</v>
+        <v>1268652.339990509</v>
       </c>
     </row>
     <row r="5">
@@ -3645,28 +3645,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>850.8246765255057</v>
+        <v>934.0552988161317</v>
       </c>
       <c r="AB5" t="n">
-        <v>1164.135858157786</v>
+        <v>1278.015667451728</v>
       </c>
       <c r="AC5" t="n">
-        <v>1053.032365730145</v>
+        <v>1156.04364585639</v>
       </c>
       <c r="AD5" t="n">
-        <v>850824.6765255056</v>
+        <v>934055.2988161317</v>
       </c>
       <c r="AE5" t="n">
-        <v>1164135.858157786</v>
+        <v>1278015.667451728</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.232344112909063e-06</v>
+        <v>2.08333886710608e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.4429012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>1053032.365730145</v>
+        <v>1156043.64585639</v>
       </c>
     </row>
     <row r="6">
@@ -3751,28 +3751,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>794.2852892332787</v>
+        <v>887.8449653653628</v>
       </c>
       <c r="AB6" t="n">
-        <v>1086.776174122836</v>
+        <v>1214.788650568356</v>
       </c>
       <c r="AC6" t="n">
-        <v>983.0557813644921</v>
+        <v>1098.85092672469</v>
       </c>
       <c r="AD6" t="n">
-        <v>794285.2892332787</v>
+        <v>887844.9653653628</v>
       </c>
       <c r="AE6" t="n">
-        <v>1086776.174122836</v>
+        <v>1214788.650568356</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.273571052122087e-06</v>
+        <v>2.153035053369804e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.9104938271605</v>
       </c>
       <c r="AH6" t="n">
-        <v>983055.781364492</v>
+        <v>1098850.92672469</v>
       </c>
     </row>
     <row r="7">
@@ -3857,28 +3857,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>751.0114558412172</v>
+        <v>834.1567372772715</v>
       </c>
       <c r="AB7" t="n">
-        <v>1027.567006169026</v>
+        <v>1141.330048340771</v>
       </c>
       <c r="AC7" t="n">
-        <v>929.4974532996047</v>
+        <v>1032.403110393911</v>
       </c>
       <c r="AD7" t="n">
-        <v>751011.4558412172</v>
+        <v>834156.7372772716</v>
       </c>
       <c r="AE7" t="n">
-        <v>1027567.006169026</v>
+        <v>1141330.048340771</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.309808743914427e-06</v>
+        <v>2.214296669321358e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.47067901234568</v>
       </c>
       <c r="AH7" t="n">
-        <v>929497.4532996047</v>
+        <v>1032403.11039391</v>
       </c>
     </row>
     <row r="8">
@@ -3963,28 +3963,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>734.1023560990966</v>
+        <v>817.2476375351509</v>
       </c>
       <c r="AB8" t="n">
-        <v>1004.431229925025</v>
+        <v>1118.194272096769</v>
       </c>
       <c r="AC8" t="n">
-        <v>908.5697230690648</v>
+        <v>1011.47538016337</v>
       </c>
       <c r="AD8" t="n">
-        <v>734102.3560990966</v>
+        <v>817247.637535151</v>
       </c>
       <c r="AE8" t="n">
-        <v>1004431.229925025</v>
+        <v>1118194.272096769</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.319944793937502e-06</v>
+        <v>2.231432164797662e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.35108024691358</v>
       </c>
       <c r="AH8" t="n">
-        <v>908569.7230690648</v>
+        <v>1011475.38016337</v>
       </c>
     </row>
     <row r="9">
@@ -4069,28 +4069,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>707.4381829859361</v>
+        <v>780.3396619265529</v>
       </c>
       <c r="AB9" t="n">
-        <v>967.9481319313026</v>
+        <v>1067.695151604119</v>
       </c>
       <c r="AC9" t="n">
-        <v>875.568520743514</v>
+        <v>965.7958248545775</v>
       </c>
       <c r="AD9" t="n">
-        <v>707438.1829859362</v>
+        <v>780339.6619265529</v>
       </c>
       <c r="AE9" t="n">
-        <v>967948.1319313026</v>
+        <v>1067695.151604119</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>2.259488209204459e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.15817901234568</v>
       </c>
       <c r="AH9" t="n">
-        <v>875568.5207435139</v>
+        <v>965795.8248545775</v>
       </c>
     </row>
     <row r="10">
@@ -4175,28 +4175,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>686.8036966493593</v>
+        <v>759.7051755899761</v>
       </c>
       <c r="AB10" t="n">
-        <v>939.7151173963088</v>
+        <v>1039.462137069125</v>
       </c>
       <c r="AC10" t="n">
-        <v>850.0300254904552</v>
+        <v>940.2573296015188</v>
       </c>
       <c r="AD10" t="n">
-        <v>686803.6966493593</v>
+        <v>759705.1755899761</v>
       </c>
       <c r="AE10" t="n">
-        <v>939715.1173963088</v>
+        <v>1039462.137069125</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.34531117819214e-06</v>
+        <v>2.274315295963748e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.06172839506173</v>
       </c>
       <c r="AH10" t="n">
-        <v>850030.0254904552</v>
+        <v>940257.3296015188</v>
       </c>
     </row>
     <row r="11">
@@ -4281,28 +4281,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>687.0196376164141</v>
+        <v>759.9211165570307</v>
       </c>
       <c r="AB11" t="n">
-        <v>940.0105773540763</v>
+        <v>1039.757597026892</v>
       </c>
       <c r="AC11" t="n">
-        <v>850.2972871645339</v>
+        <v>940.5245912755977</v>
       </c>
       <c r="AD11" t="n">
-        <v>687019.6376164141</v>
+        <v>759921.1165570307</v>
       </c>
       <c r="AE11" t="n">
-        <v>940010.5773540763</v>
+        <v>1039757.597026892</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.345731325343355e-06</v>
+        <v>2.275025575568984e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.05787037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>850297.287164534</v>
+        <v>940524.5912755977</v>
       </c>
     </row>
   </sheetData>
@@ -4578,28 +4578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1383.121686994076</v>
+        <v>1504.208501120397</v>
       </c>
       <c r="AB2" t="n">
-        <v>1892.448111167618</v>
+        <v>2058.124432228473</v>
       </c>
       <c r="AC2" t="n">
-        <v>1711.835519505386</v>
+        <v>1861.69992501237</v>
       </c>
       <c r="AD2" t="n">
-        <v>1383121.686994076</v>
+        <v>1504208.501120397</v>
       </c>
       <c r="AE2" t="n">
-        <v>1892448.111167618</v>
+        <v>2058124.432228473</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.834527103639789e-07</v>
+        <v>1.529955459344906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1711835.519505386</v>
+        <v>1861699.92501237</v>
       </c>
     </row>
     <row r="3">
@@ -4684,28 +4684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>894.5005645078401</v>
+        <v>995.2355612372983</v>
       </c>
       <c r="AB3" t="n">
-        <v>1223.895134939404</v>
+        <v>1361.725201579055</v>
       </c>
       <c r="AC3" t="n">
-        <v>1107.088301008397</v>
+        <v>1231.764059533673</v>
       </c>
       <c r="AD3" t="n">
-        <v>894500.5645078401</v>
+        <v>995235.5612372983</v>
       </c>
       <c r="AE3" t="n">
-        <v>1223895.134939404</v>
+        <v>1361725.201579055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.164716758181107e-06</v>
+        <v>2.017046008082903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.99768518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>1107088.301008397</v>
+        <v>1231764.059533673</v>
       </c>
     </row>
     <row r="4">
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>776.8072074902482</v>
+        <v>857.4464988951084</v>
       </c>
       <c r="AB4" t="n">
-        <v>1062.861891603475</v>
+        <v>1173.196127658062</v>
       </c>
       <c r="AC4" t="n">
-        <v>961.4238444048725</v>
+        <v>1061.227935825483</v>
       </c>
       <c r="AD4" t="n">
-        <v>776807.2074902481</v>
+        <v>857446.4988951085</v>
       </c>
       <c r="AE4" t="n">
-        <v>1062861.891603475</v>
+        <v>1173196.127658062</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.271094004776806e-06</v>
+        <v>2.201269167138146e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.4891975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>961423.8444048725</v>
+        <v>1061227.935825483</v>
       </c>
     </row>
     <row r="5">
@@ -4896,28 +4896,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>709.6434903209049</v>
+        <v>790.3680330717858</v>
       </c>
       <c r="AB5" t="n">
-        <v>970.9655307183</v>
+        <v>1081.416411425537</v>
       </c>
       <c r="AC5" t="n">
-        <v>878.297943225226</v>
+        <v>978.2075468965486</v>
       </c>
       <c r="AD5" t="n">
-        <v>709643.4903209049</v>
+        <v>790368.0330717858</v>
       </c>
       <c r="AE5" t="n">
-        <v>970965.5307183</v>
+        <v>1081416.411425536</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.327488071153893e-06</v>
+        <v>2.298931904165391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.7908950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>878297.943225226</v>
+        <v>978207.5468965486</v>
       </c>
     </row>
     <row r="6">
@@ -5002,28 +5002,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>662.4634972474219</v>
+        <v>743.0174477977108</v>
       </c>
       <c r="AB6" t="n">
-        <v>906.4117827607666</v>
+        <v>1016.629251693156</v>
       </c>
       <c r="AC6" t="n">
-        <v>819.9051143710054</v>
+        <v>919.6035827596768</v>
       </c>
       <c r="AD6" t="n">
-        <v>662463.4972474219</v>
+        <v>743017.4477977108</v>
       </c>
       <c r="AE6" t="n">
-        <v>906411.7827607667</v>
+        <v>1016629.251693156</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.370245422058293e-06</v>
+        <v>2.37297869996543e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.29706790123457</v>
       </c>
       <c r="AH6" t="n">
-        <v>819905.1143710054</v>
+        <v>919603.5827596767</v>
       </c>
     </row>
     <row r="7">
@@ -5108,28 +5108,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>636.9746693964825</v>
+        <v>707.6087338120544</v>
       </c>
       <c r="AB7" t="n">
-        <v>871.5368440073888</v>
+        <v>968.1814870957692</v>
       </c>
       <c r="AC7" t="n">
-        <v>788.358590824966</v>
+        <v>875.7796048185998</v>
       </c>
       <c r="AD7" t="n">
-        <v>636974.6693964824</v>
+        <v>707608.7338120544</v>
       </c>
       <c r="AE7" t="n">
-        <v>871536.8440073888</v>
+        <v>968181.4870957691</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.383773478443549e-06</v>
+        <v>2.396406466362139e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.1466049382716</v>
       </c>
       <c r="AH7" t="n">
-        <v>788358.590824966</v>
+        <v>875779.6048185998</v>
       </c>
     </row>
     <row r="8">
@@ -5214,28 +5214,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>626.8652941938976</v>
+        <v>697.4993586094697</v>
       </c>
       <c r="AB8" t="n">
-        <v>857.7047508610551</v>
+        <v>954.3493939494355</v>
       </c>
       <c r="AC8" t="n">
-        <v>775.8466132350538</v>
+        <v>863.2676272286875</v>
       </c>
       <c r="AD8" t="n">
-        <v>626865.2941938976</v>
+        <v>697499.3586094697</v>
       </c>
       <c r="AE8" t="n">
-        <v>857704.7508610551</v>
+        <v>954349.3939494354</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.39154260319492e-06</v>
+        <v>2.409860966742578e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.06172839506173</v>
       </c>
       <c r="AH8" t="n">
-        <v>775846.6132350538</v>
+        <v>863267.6272286875</v>
       </c>
     </row>
     <row r="9">
@@ -5320,28 +5320,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>629.5037939319257</v>
+        <v>700.1378583474976</v>
       </c>
       <c r="AB9" t="n">
-        <v>861.3148626050182</v>
+        <v>957.9595056933986</v>
       </c>
       <c r="AC9" t="n">
-        <v>779.1121809809965</v>
+        <v>866.5331949746304</v>
       </c>
       <c r="AD9" t="n">
-        <v>629503.7939319257</v>
+        <v>700137.8583474976</v>
       </c>
       <c r="AE9" t="n">
-        <v>861314.8626050182</v>
+        <v>957959.5056933985</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.391433944107488e-06</v>
+        <v>2.409672791912083e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.06558641975309</v>
       </c>
       <c r="AH9" t="n">
-        <v>779112.1809809966</v>
+        <v>866533.1949746304</v>
       </c>
     </row>
   </sheetData>
@@ -5617,28 +5617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.3090017960284</v>
+        <v>716.3472923104665</v>
       </c>
       <c r="AB2" t="n">
-        <v>867.889559995493</v>
+        <v>980.1379683512891</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.05939848017</v>
+        <v>886.5949762841198</v>
       </c>
       <c r="AD2" t="n">
-        <v>634309.0017960283</v>
+        <v>716347.2923104665</v>
       </c>
       <c r="AE2" t="n">
-        <v>867889.5599954929</v>
+        <v>980137.9683512892</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.319720725322786e-06</v>
+        <v>2.497195602643473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.72376543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>785059.3984801699</v>
+        <v>886594.9762841198</v>
       </c>
     </row>
     <row r="3">
@@ -5723,28 +5723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>486.844421188996</v>
+        <v>559.7673460907189</v>
       </c>
       <c r="AB3" t="n">
-        <v>666.1220151308027</v>
+        <v>765.8983781137329</v>
       </c>
       <c r="AC3" t="n">
-        <v>602.5482649148381</v>
+        <v>692.8021118516824</v>
       </c>
       <c r="AD3" t="n">
-        <v>486844.421188996</v>
+        <v>559767.3460907189</v>
       </c>
       <c r="AE3" t="n">
-        <v>666122.0151308026</v>
+        <v>765898.3781137329</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.504987229828572e-06</v>
+        <v>2.847759696615564e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.54012345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>602548.2649148381</v>
+        <v>692802.1118516824</v>
       </c>
     </row>
     <row r="4">
@@ -5829,28 +5829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>488.7805033271469</v>
+        <v>561.7034282288698</v>
       </c>
       <c r="AB4" t="n">
-        <v>668.7710481261365</v>
+        <v>768.5474111090666</v>
       </c>
       <c r="AC4" t="n">
-        <v>604.9444779190384</v>
+        <v>695.1983248558827</v>
       </c>
       <c r="AD4" t="n">
-        <v>488780.5033271469</v>
+        <v>561703.4282288698</v>
       </c>
       <c r="AE4" t="n">
-        <v>668771.0481261365</v>
+        <v>768547.4111090666</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.505775339958995e-06</v>
+        <v>2.849250970575524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.53240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>604944.4779190384</v>
+        <v>695198.3248558827</v>
       </c>
     </row>
   </sheetData>
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>856.844767779536</v>
+        <v>951.8110755692609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1172.372812599233</v>
+        <v>1302.309904534945</v>
       </c>
       <c r="AC2" t="n">
-        <v>1060.483196800338</v>
+        <v>1178.01927504956</v>
       </c>
       <c r="AD2" t="n">
-        <v>856844.7677795361</v>
+        <v>951811.0755692609</v>
       </c>
       <c r="AE2" t="n">
-        <v>1172372.812599233</v>
+        <v>1302309.904534945</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.145787141134788e-06</v>
+        <v>2.087375335077197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.52932098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>1060483.196800338</v>
+        <v>1178019.27504956</v>
       </c>
     </row>
     <row r="3">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>626.6804609278396</v>
+        <v>702.5682558135986</v>
       </c>
       <c r="AB3" t="n">
-        <v>857.4518538321664</v>
+        <v>961.284882728087</v>
       </c>
       <c r="AC3" t="n">
-        <v>775.6178523436587</v>
+        <v>869.5412026923241</v>
       </c>
       <c r="AD3" t="n">
-        <v>626680.4609278396</v>
+        <v>702568.2558135986</v>
       </c>
       <c r="AE3" t="n">
-        <v>857451.8538321664</v>
+        <v>961284.882728087</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.376034911447863e-06</v>
+        <v>2.506836768578738e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.26157407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>775617.8523436587</v>
+        <v>869541.2026923241</v>
       </c>
     </row>
     <row r="4">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>545.0604134554792</v>
+        <v>620.8628674866667</v>
       </c>
       <c r="AB4" t="n">
-        <v>745.7757040581216</v>
+        <v>849.4919658318446</v>
       </c>
       <c r="AC4" t="n">
-        <v>674.5999175655884</v>
+        <v>768.4176448823148</v>
       </c>
       <c r="AD4" t="n">
-        <v>545060.4134554792</v>
+        <v>620862.8674866667</v>
       </c>
       <c r="AE4" t="n">
-        <v>745775.7040581217</v>
+        <v>849491.9658318446</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.459608472410367e-06</v>
+        <v>2.659089646582699e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.33179012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>674599.9175655884</v>
+        <v>768417.6448823148</v>
       </c>
     </row>
     <row r="5">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>538.2784431767429</v>
+        <v>614.0808972079304</v>
       </c>
       <c r="AB5" t="n">
-        <v>736.4963131233426</v>
+        <v>840.2125748970656</v>
       </c>
       <c r="AC5" t="n">
-        <v>666.2061386779176</v>
+        <v>760.0238659946441</v>
       </c>
       <c r="AD5" t="n">
-        <v>538278.443176743</v>
+        <v>614080.8972079305</v>
       </c>
       <c r="AE5" t="n">
-        <v>736496.3131233426</v>
+        <v>840212.5748970655</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.466742093505709e-06</v>
+        <v>2.67208555497582e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>666206.1386779175</v>
+        <v>760023.8659946441</v>
       </c>
     </row>
   </sheetData>
@@ -6741,28 +6741,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>486.5976408300368</v>
+        <v>556.9335892205548</v>
       </c>
       <c r="AB2" t="n">
-        <v>665.7843593564936</v>
+        <v>762.0211069474444</v>
       </c>
       <c r="AC2" t="n">
-        <v>602.2428345337262</v>
+        <v>689.2948820037202</v>
       </c>
       <c r="AD2" t="n">
-        <v>486597.6408300368</v>
+        <v>556933.5892205548</v>
       </c>
       <c r="AE2" t="n">
-        <v>665784.3593564936</v>
+        <v>762021.1069474444</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473459557120905e-06</v>
+        <v>2.887505982598578e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.48533950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>602242.8345337262</v>
+        <v>689294.8820037202</v>
       </c>
     </row>
     <row r="3">
@@ -6847,28 +6847,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.3915201800561</v>
+        <v>529.4446881745188</v>
       </c>
       <c r="AB3" t="n">
-        <v>616.2455477818791</v>
+        <v>724.4095798115335</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.4319376076342</v>
+        <v>655.2729462295508</v>
       </c>
       <c r="AD3" t="n">
-        <v>450391.5201800562</v>
+        <v>529444.6881745188</v>
       </c>
       <c r="AE3" t="n">
-        <v>616245.5477818791</v>
+        <v>724409.5798115334</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.523829937673709e-06</v>
+        <v>2.986215699121903e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.94135802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>557431.9376076341</v>
+        <v>655272.9462295509</v>
       </c>
     </row>
   </sheetData>
@@ -7144,28 +7144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1490.878509246651</v>
+        <v>1623.077352762289</v>
       </c>
       <c r="AB2" t="n">
-        <v>2039.885749269077</v>
+        <v>2220.766039168532</v>
       </c>
       <c r="AC2" t="n">
-        <v>1845.201916356466</v>
+        <v>2008.819245254998</v>
       </c>
       <c r="AD2" t="n">
-        <v>1490878.509246652</v>
+        <v>1623077.352762289</v>
       </c>
       <c r="AE2" t="n">
-        <v>2039885.749269077</v>
+        <v>2220766.039168532</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.469268787277302e-07</v>
+        <v>1.457121778799253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.52546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>1845201.916356466</v>
+        <v>2008819.245254998</v>
       </c>
     </row>
     <row r="3">
@@ -7250,28 +7250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>950.0856013485522</v>
+        <v>1041.581708412677</v>
       </c>
       <c r="AB3" t="n">
-        <v>1299.949034583622</v>
+        <v>1425.138044792117</v>
       </c>
       <c r="AC3" t="n">
-        <v>1175.883723212889</v>
+        <v>1289.124869990965</v>
       </c>
       <c r="AD3" t="n">
-        <v>950085.6013485523</v>
+        <v>1041581.708412677</v>
       </c>
       <c r="AE3" t="n">
-        <v>1299949.034583622</v>
+        <v>1425138.044792117</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.133955943603606e-06</v>
+        <v>1.950949890864022e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.3179012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>1175883.723212889</v>
+        <v>1289124.869990965</v>
       </c>
     </row>
     <row r="4">
@@ -7356,28 +7356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>813.2161303896672</v>
+        <v>904.7121479452405</v>
       </c>
       <c r="AB4" t="n">
-        <v>1112.678186162775</v>
+        <v>1237.867073901722</v>
       </c>
       <c r="AC4" t="n">
-        <v>1006.485741729042</v>
+        <v>1119.726777725891</v>
       </c>
       <c r="AD4" t="n">
-        <v>813216.1303896672</v>
+        <v>904712.1479452405</v>
       </c>
       <c r="AE4" t="n">
-        <v>1112678.186162775</v>
+        <v>1237867.073901722</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.243200357903578e-06</v>
+        <v>2.138902852668452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.70910493827161</v>
       </c>
       <c r="AH4" t="n">
-        <v>1006485.741729042</v>
+        <v>1119726.777725891</v>
       </c>
     </row>
     <row r="5">
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>742.8067703903957</v>
+        <v>834.2174470913973</v>
       </c>
       <c r="AB5" t="n">
-        <v>1016.340993570037</v>
+        <v>1141.413114186785</v>
       </c>
       <c r="AC5" t="n">
-        <v>919.342835587255</v>
+        <v>1032.478248552165</v>
       </c>
       <c r="AD5" t="n">
-        <v>742806.7703903958</v>
+        <v>834217.4470913972</v>
       </c>
       <c r="AE5" t="n">
-        <v>1016340.993570036</v>
+        <v>1141413.114186785</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.302264489242696e-06</v>
+        <v>2.240521580662272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.94907407407408</v>
       </c>
       <c r="AH5" t="n">
-        <v>919342.835587255</v>
+        <v>1032478.248552165</v>
       </c>
     </row>
     <row r="6">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>701.1785158780652</v>
+        <v>782.584167798194</v>
       </c>
       <c r="AB6" t="n">
-        <v>959.3833792372911</v>
+        <v>1070.766183558308</v>
       </c>
       <c r="AC6" t="n">
-        <v>867.8211760259131</v>
+        <v>968.5737618292799</v>
       </c>
       <c r="AD6" t="n">
-        <v>701178.5158780653</v>
+        <v>782584.167798194</v>
       </c>
       <c r="AE6" t="n">
-        <v>959383.3792372912</v>
+        <v>1070766.183558308</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.339792018452692e-06</v>
+        <v>2.305086989424069e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.5054012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>867821.1760259131</v>
+        <v>968573.7618292798</v>
       </c>
     </row>
     <row r="7">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>669.0455075168616</v>
+        <v>750.280567236398</v>
       </c>
       <c r="AB7" t="n">
-        <v>915.4175795892131</v>
+        <v>1026.566972135383</v>
       </c>
       <c r="AC7" t="n">
-        <v>828.0514105898603</v>
+        <v>928.592861110576</v>
       </c>
       <c r="AD7" t="n">
-        <v>669045.5075168615</v>
+        <v>750280.567236398</v>
       </c>
       <c r="AE7" t="n">
-        <v>915417.5795892131</v>
+        <v>1026566.972135383</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.363159231762789e-06</v>
+        <v>2.345289840790813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.2391975308642</v>
       </c>
       <c r="AH7" t="n">
-        <v>828051.4105898603</v>
+        <v>928592.861110576</v>
       </c>
     </row>
     <row r="8">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>643.5234453846533</v>
+        <v>714.7534803233168</v>
       </c>
       <c r="AB8" t="n">
-        <v>880.4971682260102</v>
+        <v>977.9572444764485</v>
       </c>
       <c r="AC8" t="n">
-        <v>796.4637542760563</v>
+        <v>884.6223776352288</v>
       </c>
       <c r="AD8" t="n">
-        <v>643523.4453846533</v>
+        <v>714753.4803233168</v>
       </c>
       <c r="AE8" t="n">
-        <v>880497.1682260102</v>
+        <v>977957.2444764485</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.377857962715915e-06</v>
+        <v>2.370578731166668e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.07716049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>796463.7542760563</v>
+        <v>884622.3776352288</v>
       </c>
     </row>
     <row r="9">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>643.6659541984001</v>
+        <v>714.8959891370636</v>
       </c>
       <c r="AB9" t="n">
-        <v>880.692155072024</v>
+        <v>978.1522313224622</v>
       </c>
       <c r="AC9" t="n">
-        <v>796.6401318511521</v>
+        <v>884.7987552103247</v>
       </c>
       <c r="AD9" t="n">
-        <v>643665.9541984</v>
+        <v>714895.9891370636</v>
       </c>
       <c r="AE9" t="n">
-        <v>880692.155072024</v>
+        <v>978152.2313224622</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.378773268306403e-06</v>
+        <v>2.372153497234028e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.06558641975309</v>
       </c>
       <c r="AH9" t="n">
-        <v>796640.1318511521</v>
+        <v>884798.7552103247</v>
       </c>
     </row>
   </sheetData>
@@ -8183,28 +8183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.6229898099924</v>
+        <v>505.477542327342</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.4068371048677</v>
+        <v>691.6166735075761</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.3911670373402</v>
+        <v>625.6097488781099</v>
       </c>
       <c r="AD2" t="n">
-        <v>436622.9898099924</v>
+        <v>505477.542327342</v>
       </c>
       <c r="AE2" t="n">
-        <v>597406.8371048677</v>
+        <v>691616.6735075761</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.5204121264299e-06</v>
+        <v>3.047909945965491e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.35030864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>540391.1670373402</v>
+        <v>625609.74887811</v>
       </c>
     </row>
     <row r="3">
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>440.4875025087981</v>
+        <v>509.3420550261478</v>
       </c>
       <c r="AB3" t="n">
-        <v>602.6944338696411</v>
+        <v>696.9042702723494</v>
       </c>
       <c r="AC3" t="n">
-        <v>545.1741229880724</v>
+        <v>630.3927048288422</v>
       </c>
       <c r="AD3" t="n">
-        <v>440487.502508798</v>
+        <v>509342.0550261477</v>
       </c>
       <c r="AE3" t="n">
-        <v>602694.4338696412</v>
+        <v>696904.2702723495</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.520283256102181e-06</v>
+        <v>3.047651604725793e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.35030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>545174.1229880725</v>
+        <v>630392.7048288422</v>
       </c>
     </row>
   </sheetData>
@@ -8586,28 +8586,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1102.183003743806</v>
+        <v>1210.13977293127</v>
       </c>
       <c r="AB2" t="n">
-        <v>1508.055410604629</v>
+        <v>1655.766624923438</v>
       </c>
       <c r="AC2" t="n">
-        <v>1364.128718785585</v>
+        <v>1497.742582123798</v>
       </c>
       <c r="AD2" t="n">
-        <v>1102183.003743806</v>
+        <v>1210139.772931271</v>
       </c>
       <c r="AE2" t="n">
-        <v>1508055.410604629</v>
+        <v>1655766.624923439</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.003710412120334e-06</v>
+        <v>1.777645722474205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.51620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>1364128.718785585</v>
+        <v>1497742.582123799</v>
       </c>
     </row>
     <row r="3">
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>764.653168218873</v>
+        <v>843.1672716819435</v>
       </c>
       <c r="AB3" t="n">
-        <v>1046.23219887401</v>
+        <v>1153.658659029966</v>
       </c>
       <c r="AC3" t="n">
-        <v>946.3812662095875</v>
+        <v>1043.555095782242</v>
       </c>
       <c r="AD3" t="n">
-        <v>764653.168218873</v>
+        <v>843167.2716819434</v>
       </c>
       <c r="AE3" t="n">
-        <v>1046232.19887401</v>
+        <v>1153658.659029966</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.262768567677353e-06</v>
+        <v>2.236456965774112e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.10262345679012</v>
       </c>
       <c r="AH3" t="n">
-        <v>946381.2662095875</v>
+        <v>1043555.095782242</v>
       </c>
     </row>
     <row r="4">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>659.332473226248</v>
+        <v>747.4900572159393</v>
       </c>
       <c r="AB4" t="n">
-        <v>902.1277775639657</v>
+        <v>1022.748873216778</v>
       </c>
       <c r="AC4" t="n">
-        <v>816.0299686175479</v>
+        <v>925.139156194027</v>
       </c>
       <c r="AD4" t="n">
-        <v>659332.4732262481</v>
+        <v>747490.0572159393</v>
       </c>
       <c r="AE4" t="n">
-        <v>902127.7775639656</v>
+        <v>1022748.873216778</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.358040171125505e-06</v>
+        <v>2.405190054818286e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.90277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>816029.9686175479</v>
+        <v>925139.156194027</v>
       </c>
     </row>
     <row r="5">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.3181804456852</v>
+        <v>685.6616021996126</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.9595274729545</v>
+        <v>938.1524533845145</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.6539164299566</v>
+        <v>848.6164999387339</v>
       </c>
       <c r="AD5" t="n">
-        <v>607318.1804456853</v>
+        <v>685661.6021996127</v>
       </c>
       <c r="AE5" t="n">
-        <v>830959.5274729545</v>
+        <v>938152.4533845145</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.409258453825304e-06</v>
+        <v>2.495901439351435e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.32407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>751653.9164299566</v>
+        <v>848616.4999387339</v>
       </c>
     </row>
     <row r="6">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>583.1437063934989</v>
+        <v>651.8435581122545</v>
       </c>
       <c r="AB6" t="n">
-        <v>797.8829455722278</v>
+        <v>891.8811135173823</v>
       </c>
       <c r="AC6" t="n">
-        <v>721.7341170825609</v>
+        <v>806.7612318062875</v>
       </c>
       <c r="AD6" t="n">
-        <v>583143.7063934988</v>
+        <v>651843.5581122545</v>
       </c>
       <c r="AE6" t="n">
-        <v>797882.9455722277</v>
+        <v>891881.1135173823</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.42655511978622e-06</v>
+        <v>2.526535120029843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.13888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>721734.1170825609</v>
+        <v>806761.2318062874</v>
       </c>
     </row>
     <row r="7">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>583.2625839520497</v>
+        <v>651.9624356708053</v>
       </c>
       <c r="AB7" t="n">
-        <v>798.045599092345</v>
+        <v>892.0437670374995</v>
       </c>
       <c r="AC7" t="n">
-        <v>721.8812471790037</v>
+        <v>806.9083619027301</v>
       </c>
       <c r="AD7" t="n">
-        <v>583262.5839520497</v>
+        <v>651962.4356708054</v>
       </c>
       <c r="AE7" t="n">
-        <v>798045.599092345</v>
+        <v>892043.7670374995</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.429857719435715e-06</v>
+        <v>2.53238426941504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>721881.2471790037</v>
+        <v>806908.3619027301</v>
       </c>
     </row>
   </sheetData>
@@ -9413,28 +9413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1280.900978862124</v>
+        <v>1400.84193833346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1752.585228642115</v>
+        <v>1916.693740812479</v>
       </c>
       <c r="AC2" t="n">
-        <v>1585.320954189328</v>
+        <v>1733.767180285896</v>
       </c>
       <c r="AD2" t="n">
-        <v>1280900.978862124</v>
+        <v>1400841.93833346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1752585.228642115</v>
+        <v>1916693.740812479</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.217897946575447e-07</v>
+        <v>1.607520911931303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.95524691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>1585320.954189328</v>
+        <v>1733767.180285896</v>
       </c>
     </row>
     <row r="3">
@@ -9519,28 +9519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>852.902473530133</v>
+        <v>942.922198774564</v>
       </c>
       <c r="AB3" t="n">
-        <v>1166.978791685452</v>
+        <v>1290.147751154874</v>
       </c>
       <c r="AC3" t="n">
-        <v>1055.603973672013</v>
+        <v>1167.017860518393</v>
       </c>
       <c r="AD3" t="n">
-        <v>852902.473530133</v>
+        <v>942922.198774564</v>
       </c>
       <c r="AE3" t="n">
-        <v>1166978.791685452</v>
+        <v>1290147.751154874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.193823910293971e-06</v>
+        <v>2.081924655798695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.72376543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>1055603.973672013</v>
+        <v>1167017.860518393</v>
       </c>
     </row>
     <row r="4">
@@ -9625,28 +9625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>742.3059112159963</v>
+        <v>822.2381934205808</v>
       </c>
       <c r="AB4" t="n">
-        <v>1015.655695951276</v>
+        <v>1125.022570827001</v>
       </c>
       <c r="AC4" t="n">
-        <v>918.7229418114073</v>
+        <v>1017.651995646366</v>
       </c>
       <c r="AD4" t="n">
-        <v>742305.9112159963</v>
+        <v>822238.1934205808</v>
       </c>
       <c r="AE4" t="n">
-        <v>1015655.695951276</v>
+        <v>1125022.570827001</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.297536916880359e-06</v>
+        <v>2.262791083148139e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.30787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>918722.9418114073</v>
+        <v>1017651.995646366</v>
       </c>
     </row>
     <row r="5">
@@ -9731,28 +9731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>676.2205192260944</v>
+        <v>756.2380527766998</v>
       </c>
       <c r="AB5" t="n">
-        <v>925.2347471489622</v>
+        <v>1034.718266677337</v>
       </c>
       <c r="AC5" t="n">
-        <v>836.9316414561879</v>
+        <v>935.9662075418593</v>
       </c>
       <c r="AD5" t="n">
-        <v>676220.5192260945</v>
+        <v>756238.0527766998</v>
       </c>
       <c r="AE5" t="n">
-        <v>925234.7471489622</v>
+        <v>1034718.266677337</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.353479416466882e-06</v>
+        <v>2.360349917572481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.63271604938272</v>
       </c>
       <c r="AH5" t="n">
-        <v>836931.6414561879</v>
+        <v>935966.2075418592</v>
       </c>
     </row>
     <row r="6">
@@ -9837,28 +9837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>642.821343287026</v>
+        <v>722.6682846370391</v>
       </c>
       <c r="AB6" t="n">
-        <v>879.5365211614785</v>
+        <v>988.7866289150058</v>
       </c>
       <c r="AC6" t="n">
-        <v>795.5947900190868</v>
+        <v>894.4182208221068</v>
       </c>
       <c r="AD6" t="n">
-        <v>642821.343287026</v>
+        <v>722668.2846370391</v>
       </c>
       <c r="AE6" t="n">
-        <v>879536.5211614785</v>
+        <v>988786.6289150058</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.379147151571287e-06</v>
+        <v>2.405112206308356e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.34336419753087</v>
       </c>
       <c r="AH6" t="n">
-        <v>795594.7900190868</v>
+        <v>894418.2208221068</v>
       </c>
     </row>
     <row r="7">
@@ -9943,28 +9943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>612.8868761726468</v>
+        <v>682.9023075379771</v>
       </c>
       <c r="AB7" t="n">
-        <v>838.5788626400998</v>
+        <v>934.3770646969759</v>
       </c>
       <c r="AC7" t="n">
-        <v>758.5460729425538</v>
+        <v>845.2014290487424</v>
       </c>
       <c r="AD7" t="n">
-        <v>612886.8761726468</v>
+        <v>682902.3075379771</v>
       </c>
       <c r="AE7" t="n">
-        <v>838578.8626400998</v>
+        <v>934377.064696976</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402291989635515e-06</v>
+        <v>2.445474782903526e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.08873456790123</v>
       </c>
       <c r="AH7" t="n">
-        <v>758546.0729425538</v>
+        <v>845201.4290487424</v>
       </c>
     </row>
     <row r="8">
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>613.4336649791696</v>
+        <v>683.4490963445002</v>
       </c>
       <c r="AB8" t="n">
-        <v>839.3270032078044</v>
+        <v>935.1252052646803</v>
       </c>
       <c r="AC8" t="n">
-        <v>759.2228120244981</v>
+        <v>845.8781681306872</v>
       </c>
       <c r="AD8" t="n">
-        <v>613433.6649791696</v>
+        <v>683449.0963445002</v>
       </c>
       <c r="AE8" t="n">
-        <v>839327.0032078044</v>
+        <v>935125.2052646803</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.403992202858243e-06</v>
+        <v>2.448439806302697e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.06944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>759222.8120244981</v>
+        <v>845878.1681306872</v>
       </c>
     </row>
   </sheetData>
@@ -10346,28 +10346,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1725.696932544984</v>
+        <v>1859.998210409005</v>
       </c>
       <c r="AB2" t="n">
-        <v>2361.174675483558</v>
+        <v>2544.931608811328</v>
       </c>
       <c r="AC2" t="n">
-        <v>2135.827478384876</v>
+        <v>2302.046907900321</v>
       </c>
       <c r="AD2" t="n">
-        <v>1725696.932544984</v>
+        <v>1859998.210409005</v>
       </c>
       <c r="AE2" t="n">
-        <v>2361174.675483557</v>
+        <v>2544931.608811328</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.785095784190204e-07</v>
+        <v>1.323414686516644e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.23456790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>2135827.478384877</v>
+        <v>2302046.90790032</v>
       </c>
     </row>
     <row r="3">
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1041.989697941475</v>
+        <v>1145.278610325397</v>
       </c>
       <c r="AB3" t="n">
-        <v>1425.696274064647</v>
+        <v>1567.020720773541</v>
       </c>
       <c r="AC3" t="n">
-        <v>1289.629822645204</v>
+        <v>1417.466462510308</v>
       </c>
       <c r="AD3" t="n">
-        <v>1041989.697941475</v>
+        <v>1145278.610325397</v>
       </c>
       <c r="AE3" t="n">
-        <v>1425696.274064647</v>
+        <v>1567020.720773541</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.077345874500577e-06</v>
+        <v>1.831416584067742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1289629.822645204</v>
+        <v>1417466.462510308</v>
       </c>
     </row>
     <row r="4">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>895.7547134424674</v>
+        <v>978.4542055418133</v>
       </c>
       <c r="AB4" t="n">
-        <v>1225.611116840908</v>
+        <v>1338.76421037533</v>
       </c>
       <c r="AC4" t="n">
-        <v>1108.640512005617</v>
+        <v>1210.994433104478</v>
       </c>
       <c r="AD4" t="n">
-        <v>895754.7134424674</v>
+        <v>978454.2055418133</v>
       </c>
       <c r="AE4" t="n">
-        <v>1225611.116840908</v>
+        <v>1338764.21037533</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.191851261289666e-06</v>
+        <v>2.026068152606808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.13734567901234</v>
       </c>
       <c r="AH4" t="n">
-        <v>1108640.512005617</v>
+        <v>1210994.433104478</v>
       </c>
     </row>
     <row r="5">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>818.9846068380166</v>
+        <v>901.5987580827911</v>
       </c>
       <c r="AB5" t="n">
-        <v>1120.570870126627</v>
+        <v>1233.607196538852</v>
       </c>
       <c r="AC5" t="n">
-        <v>1013.625159012835</v>
+        <v>1115.873457079757</v>
       </c>
       <c r="AD5" t="n">
-        <v>818984.6068380165</v>
+        <v>901598.758082791</v>
       </c>
       <c r="AE5" t="n">
-        <v>1120570.870126627</v>
+        <v>1233607.196538852</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.253683111391217e-06</v>
+        <v>2.131178199788328e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.29243827160494</v>
       </c>
       <c r="AH5" t="n">
-        <v>1013625.159012835</v>
+        <v>1115873.457079757</v>
       </c>
     </row>
     <row r="6">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>763.2810213452594</v>
+        <v>845.9804239360541</v>
       </c>
       <c r="AB6" t="n">
-        <v>1044.354766986684</v>
+        <v>1157.507738051558</v>
       </c>
       <c r="AC6" t="n">
-        <v>944.6830137865956</v>
+        <v>1047.03682410423</v>
       </c>
       <c r="AD6" t="n">
-        <v>763281.0213452594</v>
+        <v>845980.4239360541</v>
       </c>
       <c r="AE6" t="n">
-        <v>1044354.766986684</v>
+        <v>1157507.738051558</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294869052640367e-06</v>
+        <v>2.201191570256841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.77160493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>944683.0137865955</v>
+        <v>1047036.82410423</v>
       </c>
     </row>
     <row r="7">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>735.8887082370452</v>
+        <v>818.58811082784</v>
       </c>
       <c r="AB7" t="n">
-        <v>1006.87539572846</v>
+        <v>1120.028366793334</v>
       </c>
       <c r="AC7" t="n">
-        <v>910.7806211186286</v>
+        <v>1013.134431436263</v>
       </c>
       <c r="AD7" t="n">
-        <v>735888.7082370452</v>
+        <v>818588.1108278399</v>
       </c>
       <c r="AE7" t="n">
-        <v>1006875.39572846</v>
+        <v>1120028.366793334</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.315991405543209e-06</v>
+        <v>2.23709817027861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.52083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>910780.6211186285</v>
+        <v>1013134.431436263</v>
       </c>
     </row>
     <row r="8">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.0148838396885</v>
+        <v>786.5436942298912</v>
       </c>
       <c r="AB8" t="n">
-        <v>963.2642230141072</v>
+        <v>1076.183782304134</v>
       </c>
       <c r="AC8" t="n">
-        <v>871.3316375194684</v>
+        <v>973.4743125544517</v>
       </c>
       <c r="AD8" t="n">
-        <v>704014.8838396885</v>
+        <v>786543.6942298912</v>
       </c>
       <c r="AE8" t="n">
-        <v>963264.2230141072</v>
+        <v>1076183.782304134</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.338807781736504e-06</v>
+        <v>2.275884497620422e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>871331.6375194683</v>
+        <v>973474.3125544516</v>
       </c>
     </row>
     <row r="9">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>677.2685446264155</v>
+        <v>749.6306114019119</v>
       </c>
       <c r="AB9" t="n">
-        <v>926.6687017372989</v>
+        <v>1025.677673888612</v>
       </c>
       <c r="AC9" t="n">
-        <v>838.2287414311816</v>
+        <v>927.7884362403385</v>
       </c>
       <c r="AD9" t="n">
-        <v>677268.5446264155</v>
+        <v>749630.6114019119</v>
       </c>
       <c r="AE9" t="n">
-        <v>926668.7017372989</v>
+        <v>1025677.673888612</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.354953941223638e-06</v>
+        <v>2.303331898639569e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.0733024691358</v>
       </c>
       <c r="AH9" t="n">
-        <v>838228.7414311816</v>
+        <v>927788.4362403385</v>
       </c>
     </row>
     <row r="10">
@@ -11194,28 +11194,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>669.9425423466716</v>
+        <v>742.3046091221684</v>
       </c>
       <c r="AB10" t="n">
-        <v>916.6449422177433</v>
+        <v>1015.653914369056</v>
       </c>
       <c r="AC10" t="n">
-        <v>829.1616354517375</v>
+        <v>918.7213302608945</v>
       </c>
       <c r="AD10" t="n">
-        <v>669942.5423466717</v>
+        <v>742304.6091221684</v>
       </c>
       <c r="AE10" t="n">
-        <v>916644.9422177433</v>
+        <v>1015653.914369056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>2.31035123398217e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.02700617283951</v>
       </c>
       <c r="AH10" t="n">
-        <v>829161.6354517376</v>
+        <v>918721.3302608945</v>
       </c>
     </row>
     <row r="11">
@@ -11300,28 +11300,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>672.5050489666188</v>
+        <v>744.8671157421153</v>
       </c>
       <c r="AB11" t="n">
-        <v>920.151076824968</v>
+        <v>1019.160048976281</v>
       </c>
       <c r="AC11" t="n">
-        <v>832.3331494929397</v>
+        <v>921.8928443020966</v>
       </c>
       <c r="AD11" t="n">
-        <v>672505.0489666188</v>
+        <v>744867.1157421153</v>
       </c>
       <c r="AE11" t="n">
-        <v>920151.076824968</v>
+        <v>1019160.048976281</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359083122994119e-06</v>
+        <v>2.31035123398217e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.02700617283951</v>
       </c>
       <c r="AH11" t="n">
-        <v>832333.1494929397</v>
+        <v>921892.8443020966</v>
       </c>
     </row>
   </sheetData>
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>938.1459265478982</v>
+        <v>1034.142138813418</v>
       </c>
       <c r="AB2" t="n">
-        <v>1283.61264478009</v>
+        <v>1414.958897455764</v>
       </c>
       <c r="AC2" t="n">
-        <v>1161.10645552394</v>
+        <v>1279.91720618987</v>
       </c>
       <c r="AD2" t="n">
-        <v>938145.9265478982</v>
+        <v>1034142.138813418</v>
       </c>
       <c r="AE2" t="n">
-        <v>1283612.64478009</v>
+        <v>1414958.897455764</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.095881823063804e-06</v>
+        <v>1.976134256395601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.16203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1161106.45552394</v>
+        <v>1279917.20618987</v>
       </c>
     </row>
     <row r="3">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>669.873999523412</v>
+        <v>756.2619759192263</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.5511589030632</v>
+        <v>1034.750999376356</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.076802684985</v>
+        <v>935.9958162780248</v>
       </c>
       <c r="AD3" t="n">
-        <v>669873.999523412</v>
+        <v>756261.9759192263</v>
       </c>
       <c r="AE3" t="n">
-        <v>916551.1589030632</v>
+        <v>1034750.999376356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.336076668422027e-06</v>
+        <v>2.409262402270863e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.53935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>829076.802684985</v>
+        <v>935995.8162780248</v>
       </c>
     </row>
     <row r="4">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>584.1833933726818</v>
+        <v>661.0485642619136</v>
       </c>
       <c r="AB4" t="n">
-        <v>799.3054911648983</v>
+        <v>904.4758090275566</v>
       </c>
       <c r="AC4" t="n">
-        <v>723.0208969204223</v>
+        <v>818.1539072537366</v>
       </c>
       <c r="AD4" t="n">
-        <v>584183.3933726818</v>
+        <v>661048.5642619136</v>
       </c>
       <c r="AE4" t="n">
-        <v>799305.4911648983</v>
+        <v>904475.8090275566</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.424846818709401e-06</v>
+        <v>2.569335989802255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.50925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>723020.8969204223</v>
+        <v>818153.9072537366</v>
       </c>
     </row>
     <row r="5">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>552.7423477977356</v>
+        <v>629.4369264863753</v>
       </c>
       <c r="AB5" t="n">
-        <v>756.2864655282216</v>
+        <v>861.2233716160328</v>
       </c>
       <c r="AC5" t="n">
-        <v>684.1075467129282</v>
+        <v>779.0294217635916</v>
       </c>
       <c r="AD5" t="n">
-        <v>552742.3477977356</v>
+        <v>629436.9264863754</v>
       </c>
       <c r="AE5" t="n">
-        <v>756286.4655282216</v>
+        <v>861223.3716160328</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453024182542555e-06</v>
+        <v>2.620146444683187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.20447530864197</v>
       </c>
       <c r="AH5" t="n">
-        <v>684107.5467129282</v>
+        <v>779029.4217635916</v>
       </c>
     </row>
     <row r="6">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>554.9672258549416</v>
+        <v>631.6618045435814</v>
       </c>
       <c r="AB6" t="n">
-        <v>759.3306418407833</v>
+        <v>864.2675479285946</v>
       </c>
       <c r="AC6" t="n">
-        <v>686.8611911107474</v>
+        <v>781.7830661614107</v>
       </c>
       <c r="AD6" t="n">
-        <v>554967.2258549416</v>
+        <v>631661.8045435814</v>
       </c>
       <c r="AE6" t="n">
-        <v>759330.6418407833</v>
+        <v>864267.5479285946</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.453711435318973e-06</v>
+        <v>2.621385724070527e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.20061728395062</v>
       </c>
       <c r="AH6" t="n">
-        <v>686861.1911107474</v>
+        <v>781783.0661614108</v>
       </c>
     </row>
   </sheetData>
@@ -12318,28 +12318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>710.0270447585165</v>
+        <v>793.207277907782</v>
       </c>
       <c r="AB2" t="n">
-        <v>971.4903268210679</v>
+        <v>1085.301191468789</v>
       </c>
       <c r="AC2" t="n">
-        <v>878.7726535245017</v>
+        <v>981.7215689847956</v>
       </c>
       <c r="AD2" t="n">
-        <v>710027.0447585165</v>
+        <v>793207.277907782</v>
       </c>
       <c r="AE2" t="n">
-        <v>971490.326821068</v>
+        <v>1085301.191468789</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.257579357735408e-06</v>
+        <v>2.34624110542525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.30246913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>878772.6535245017</v>
+        <v>981721.5689847956</v>
       </c>
     </row>
     <row r="3">
@@ -12424,28 +12424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>527.4456647779241</v>
+        <v>601.459428773734</v>
       </c>
       <c r="AB3" t="n">
-        <v>721.6744278096247</v>
+        <v>822.9433249655091</v>
       </c>
       <c r="AC3" t="n">
-        <v>652.7988332958942</v>
+        <v>744.4027690390109</v>
       </c>
       <c r="AD3" t="n">
-        <v>527445.6647779241</v>
+        <v>601459.428773734</v>
       </c>
       <c r="AE3" t="n">
-        <v>721674.4278096247</v>
+        <v>822943.3249655091</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.464829390409639e-06</v>
+        <v>2.732903420427495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71373456790123</v>
       </c>
       <c r="AH3" t="n">
-        <v>652798.8332958942</v>
+        <v>744402.7690390109</v>
       </c>
     </row>
     <row r="4">
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.1851717850034</v>
+        <v>579.0283435802213</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.2166392330705</v>
+        <v>792.2521246141076</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.2478933133116</v>
+        <v>716.6406937737772</v>
       </c>
       <c r="AD4" t="n">
-        <v>505185.1717850034</v>
+        <v>579028.3435802213</v>
       </c>
       <c r="AE4" t="n">
-        <v>691216.6392330705</v>
+        <v>792252.1246141077</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.492331481677003e-06</v>
+        <v>2.784213531888645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.42438271604938</v>
       </c>
       <c r="AH4" t="n">
-        <v>625247.8933133116</v>
+        <v>716640.6937737772</v>
       </c>
     </row>
   </sheetData>
@@ -22464,28 +22464,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.4084610890303</v>
+        <v>638.1431317695229</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.9850446397381</v>
+        <v>873.1355857751046</v>
       </c>
       <c r="AC2" t="n">
-        <v>701.0215596776624</v>
+        <v>789.804750922219</v>
       </c>
       <c r="AD2" t="n">
-        <v>566408.4610890303</v>
+        <v>638143.1317695229</v>
       </c>
       <c r="AE2" t="n">
-        <v>774985.0446397382</v>
+        <v>873135.5857751046</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.390947067479643e-06</v>
+        <v>2.674842792098814e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>701021.5596776623</v>
+        <v>789804.750922219</v>
       </c>
     </row>
     <row r="3">
@@ -22570,28 +22570,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>469.4526764408276</v>
+        <v>541.1872576127693</v>
       </c>
       <c r="AB3" t="n">
-        <v>642.3258626967317</v>
+        <v>740.4762813625497</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.0231838709651</v>
+        <v>669.8062643342952</v>
       </c>
       <c r="AD3" t="n">
-        <v>469452.6764408277</v>
+        <v>541187.2576127693</v>
       </c>
       <c r="AE3" t="n">
-        <v>642325.8626967317</v>
+        <v>740476.2813625496</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.515236849364554e-06</v>
+        <v>2.913856651777017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.71373456790123</v>
       </c>
       <c r="AH3" t="n">
-        <v>581023.1838709651</v>
+        <v>669806.2643342952</v>
       </c>
     </row>
   </sheetData>
@@ -22867,28 +22867,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>421.7950053076789</v>
+        <v>489.011628817051</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.1185345442947</v>
+        <v>669.0872842179602</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.0391515983368</v>
+        <v>605.2305328820987</v>
       </c>
       <c r="AD2" t="n">
-        <v>421795.0053076789</v>
+        <v>489011.628817051</v>
       </c>
       <c r="AE2" t="n">
-        <v>577118.5345442947</v>
+        <v>669087.2842179602</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501455057250141e-06</v>
+        <v>3.096900182140797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.0216049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>522039.1515983369</v>
+        <v>605230.5328820987</v>
       </c>
     </row>
   </sheetData>
@@ -23164,28 +23164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1193.165685125848</v>
+        <v>1302.092919451889</v>
       </c>
       <c r="AB2" t="n">
-        <v>1632.541929144156</v>
+        <v>1781.580976679466</v>
       </c>
       <c r="AC2" t="n">
-        <v>1476.734418713625</v>
+        <v>1611.549388729783</v>
       </c>
       <c r="AD2" t="n">
-        <v>1193165.685125848</v>
+        <v>1302092.919451889</v>
       </c>
       <c r="AE2" t="n">
-        <v>1632541.929144156</v>
+        <v>1781580.976679466</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.623444054668682e-07</v>
+        <v>1.690801158059008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.20679012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>1476734.418713626</v>
+        <v>1611549.388729783</v>
       </c>
     </row>
     <row r="3">
@@ -23270,28 +23270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>809.3914037158453</v>
+        <v>898.4128452469397</v>
       </c>
       <c r="AB3" t="n">
-        <v>1107.44502639262</v>
+        <v>1229.248090044285</v>
       </c>
       <c r="AC3" t="n">
-        <v>1001.752027382564</v>
+        <v>1111.930377590988</v>
       </c>
       <c r="AD3" t="n">
-        <v>809391.4037158453</v>
+        <v>898412.8452469397</v>
       </c>
       <c r="AE3" t="n">
-        <v>1107445.02639262</v>
+        <v>1229248.090044285</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226624907307795e-06</v>
+        <v>2.155131574515551e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.42283950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>1001752.027382564</v>
+        <v>1111930.377590988</v>
       </c>
     </row>
     <row r="4">
@@ -23376,28 +23376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.3914534211613</v>
+        <v>785.5880098366399</v>
       </c>
       <c r="AB4" t="n">
-        <v>966.5159503623286</v>
+        <v>1074.876172755468</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.2730245734032</v>
+        <v>972.2914994258686</v>
       </c>
       <c r="AD4" t="n">
-        <v>706391.4534211613</v>
+        <v>785588.0098366399</v>
       </c>
       <c r="AE4" t="n">
-        <v>966515.9503623286</v>
+        <v>1074876.172755468</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.326277102405642e-06</v>
+        <v>2.330216550245025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.11496913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>874273.0245734032</v>
+        <v>972291.4994258685</v>
       </c>
     </row>
     <row r="5">
@@ -23482,28 +23482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.2733475243394</v>
+        <v>721.3845630852463</v>
       </c>
       <c r="AB5" t="n">
-        <v>878.7867291831037</v>
+        <v>987.0301844540455</v>
       </c>
       <c r="AC5" t="n">
-        <v>794.9165571347885</v>
+        <v>892.829408955315</v>
       </c>
       <c r="AD5" t="n">
-        <v>642273.3475243394</v>
+        <v>721384.5630852464</v>
       </c>
       <c r="AE5" t="n">
-        <v>878786.7291831038</v>
+        <v>987030.1844540455</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.380673131080509e-06</v>
+        <v>2.425788226824427e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.47839506172839</v>
       </c>
       <c r="AH5" t="n">
-        <v>794916.5571347885</v>
+        <v>892829.408955315</v>
       </c>
     </row>
     <row r="6">
@@ -23588,28 +23588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>604.7166895999474</v>
+        <v>674.08836089981</v>
       </c>
       <c r="AB6" t="n">
-        <v>827.4000529281396</v>
+        <v>922.3174340627531</v>
       </c>
       <c r="AC6" t="n">
-        <v>748.4341531399451</v>
+        <v>834.2927526364521</v>
       </c>
       <c r="AD6" t="n">
-        <v>604716.6895999473</v>
+        <v>674088.36089981</v>
       </c>
       <c r="AE6" t="n">
-        <v>827400.0529281397</v>
+        <v>922317.4340627531</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.410086869600218e-06</v>
+        <v>2.477467005096995e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.15432098765432</v>
       </c>
       <c r="AH6" t="n">
-        <v>748434.1531399451</v>
+        <v>834292.7526364521</v>
       </c>
     </row>
     <row r="7">
@@ -23694,28 +23694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>597.625425631514</v>
+        <v>666.9970969313767</v>
       </c>
       <c r="AB7" t="n">
-        <v>817.6974727220423</v>
+        <v>912.6148538566557</v>
       </c>
       <c r="AC7" t="n">
-        <v>739.6575735710608</v>
+        <v>825.5161730675677</v>
       </c>
       <c r="AD7" t="n">
-        <v>597625.4256315139</v>
+        <v>666997.0969313767</v>
       </c>
       <c r="AE7" t="n">
-        <v>817697.4727220424</v>
+        <v>912614.8538566558</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416457076624261e-06</v>
+        <v>2.488659207547741e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.08873456790123</v>
       </c>
       <c r="AH7" t="n">
-        <v>739657.5735710608</v>
+        <v>825516.1730675678</v>
       </c>
     </row>
   </sheetData>
@@ -23991,28 +23991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1604.52177834951</v>
+        <v>1737.70397419032</v>
       </c>
       <c r="AB2" t="n">
-        <v>2195.377483642799</v>
+        <v>2377.603239575998</v>
       </c>
       <c r="AC2" t="n">
-        <v>1985.85373783558</v>
+        <v>2150.688123377969</v>
       </c>
       <c r="AD2" t="n">
-        <v>1604521.778349509</v>
+        <v>1737703.97419032</v>
       </c>
       <c r="AE2" t="n">
-        <v>2195377.483642799</v>
+        <v>2377603.239575997</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.121547638148554e-07</v>
+        <v>1.388694137650989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.35493827160494</v>
       </c>
       <c r="AH2" t="n">
-        <v>1985853.73783558</v>
+        <v>2150688.123377969</v>
       </c>
     </row>
     <row r="3">
@@ -24097,28 +24097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>996.297519231229</v>
+        <v>1098.791246100813</v>
       </c>
       <c r="AB3" t="n">
-        <v>1363.178219356631</v>
+        <v>1503.414658163699</v>
       </c>
       <c r="AC3" t="n">
-        <v>1233.078403333881</v>
+        <v>1359.930873244281</v>
       </c>
       <c r="AD3" t="n">
-        <v>996297.519231229</v>
+        <v>1098791.246100813</v>
       </c>
       <c r="AE3" t="n">
-        <v>1363178.219356631</v>
+        <v>1503414.658163699</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.10445574880665e-06</v>
+        <v>1.888496247264976e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1233078.403333881</v>
+        <v>1359930.87324428</v>
       </c>
     </row>
     <row r="4">
@@ -24203,28 +24203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>848.9803250629648</v>
+        <v>941.2161451601332</v>
       </c>
       <c r="AB4" t="n">
-        <v>1161.612335119694</v>
+        <v>1287.813453333836</v>
       </c>
       <c r="AC4" t="n">
-        <v>1050.749684189022</v>
+        <v>1164.906344805188</v>
       </c>
       <c r="AD4" t="n">
-        <v>848980.3250629648</v>
+        <v>941216.1451601333</v>
       </c>
       <c r="AE4" t="n">
-        <v>1161612.335119694</v>
+        <v>1287813.453333836</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.217191263836355e-06</v>
+        <v>2.081261414449917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.91743827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>1050749.684189022</v>
+        <v>1164906.344805188</v>
       </c>
     </row>
     <row r="5">
@@ -24309,28 +24309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>785.2182386854612</v>
+        <v>867.1962415187651</v>
       </c>
       <c r="AB5" t="n">
-        <v>1074.370235553273</v>
+        <v>1186.536155644037</v>
       </c>
       <c r="AC5" t="n">
-        <v>971.8338481601639</v>
+        <v>1073.294810263323</v>
       </c>
       <c r="AD5" t="n">
-        <v>785218.2386854612</v>
+        <v>867196.2415187651</v>
       </c>
       <c r="AE5" t="n">
-        <v>1074370.235553273</v>
+        <v>1186536.155644037</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.278309713035699e-06</v>
+        <v>2.185767151394405e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>971833.848160164</v>
+        <v>1073294.810263323</v>
       </c>
     </row>
     <row r="6">
@@ -24415,28 +24415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>732.1066267306413</v>
+        <v>814.1698809099659</v>
       </c>
       <c r="AB6" t="n">
-        <v>1001.700584957738</v>
+        <v>1113.983149701151</v>
       </c>
       <c r="AC6" t="n">
-        <v>906.099687024972</v>
+        <v>1007.666161378843</v>
       </c>
       <c r="AD6" t="n">
-        <v>732106.6267306414</v>
+        <v>814169.8809099658</v>
       </c>
       <c r="AE6" t="n">
-        <v>1001700.584957738</v>
+        <v>1113983.149701151</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.316902410652402e-06</v>
+        <v>2.251756363456296e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.63657407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>906099.6870249721</v>
+        <v>1007666.161378843</v>
       </c>
     </row>
     <row r="7">
@@ -24521,28 +24521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>701.319718573134</v>
+        <v>783.2123805518662</v>
       </c>
       <c r="AB7" t="n">
-        <v>959.5765789941074</v>
+        <v>1071.625731962673</v>
       </c>
       <c r="AC7" t="n">
-        <v>867.9959370690963</v>
+        <v>969.351276140316</v>
       </c>
       <c r="AD7" t="n">
-        <v>701319.7185731339</v>
+        <v>783212.3805518663</v>
       </c>
       <c r="AE7" t="n">
-        <v>959576.5789941074</v>
+        <v>1071625.731962673</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.340442354841843e-06</v>
+        <v>2.29200704467247e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.36265432098765</v>
       </c>
       <c r="AH7" t="n">
-        <v>867995.9370690963</v>
+        <v>969351.276140316</v>
       </c>
     </row>
     <row r="8">
@@ -24627,28 +24627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>670.0302977515112</v>
+        <v>741.8357346669711</v>
       </c>
       <c r="AB8" t="n">
-        <v>916.7650130341399</v>
+        <v>1015.012379654174</v>
       </c>
       <c r="AC8" t="n">
-        <v>829.2702468779377</v>
+        <v>918.1410227188014</v>
       </c>
       <c r="AD8" t="n">
-        <v>670030.2977515112</v>
+        <v>741835.7346669711</v>
       </c>
       <c r="AE8" t="n">
-        <v>916765.0130341399</v>
+        <v>1015012.379654174</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.360886342652628e-06</v>
+        <v>2.326963985501936e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.13117283950617</v>
       </c>
       <c r="AH8" t="n">
-        <v>829270.2468779377</v>
+        <v>918141.0227188014</v>
       </c>
     </row>
     <row r="9">
@@ -24733,28 +24733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>656.5693810361128</v>
+        <v>728.3748179515728</v>
       </c>
       <c r="AB9" t="n">
-        <v>898.3471929303983</v>
+        <v>996.5945595504329</v>
       </c>
       <c r="AC9" t="n">
-        <v>812.6101976753245</v>
+        <v>901.480973516188</v>
       </c>
       <c r="AD9" t="n">
-        <v>656569.3810361128</v>
+        <v>728374.8179515728</v>
       </c>
       <c r="AE9" t="n">
-        <v>898347.1929303983</v>
+        <v>996594.559550433</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.368359340808006e-06</v>
+        <v>2.339741979538816e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.05015432098765</v>
       </c>
       <c r="AH9" t="n">
-        <v>812610.1976753245</v>
+        <v>901480.973516188</v>
       </c>
     </row>
     <row r="10">
@@ -24839,28 +24839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>658.9472340558406</v>
+        <v>730.7526709713005</v>
       </c>
       <c r="AB10" t="n">
-        <v>901.6006763354615</v>
+        <v>999.848042955496</v>
       </c>
       <c r="AC10" t="n">
-        <v>815.553173190501</v>
+        <v>904.4239490313645</v>
       </c>
       <c r="AD10" t="n">
-        <v>658947.2340558405</v>
+        <v>730752.6709713006</v>
       </c>
       <c r="AE10" t="n">
-        <v>901600.6763354614</v>
+        <v>999848.042955496</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367985690900237e-06</v>
+        <v>2.339103079836973e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.05401234567901</v>
       </c>
       <c r="AH10" t="n">
-        <v>815553.1731905009</v>
+        <v>904423.9490313645</v>
       </c>
     </row>
   </sheetData>
@@ -25136,28 +25136,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>403.1462114690833</v>
+        <v>484.4401552819842</v>
       </c>
       <c r="AB2" t="n">
-        <v>551.6024320876091</v>
+        <v>662.8323924481034</v>
       </c>
       <c r="AC2" t="n">
-        <v>498.9582701480428</v>
+        <v>599.5725992039612</v>
       </c>
       <c r="AD2" t="n">
-        <v>403146.2114690833</v>
+        <v>484440.1552819842</v>
       </c>
       <c r="AE2" t="n">
-        <v>551602.4320876092</v>
+        <v>662832.3924481034</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.425814003383292e-06</v>
+        <v>3.056176125580112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.5570987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>498958.2701480428</v>
+        <v>599572.5992039612</v>
       </c>
     </row>
   </sheetData>
@@ -25433,28 +25433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>778.9480767074839</v>
+        <v>872.6451756037064</v>
       </c>
       <c r="AB2" t="n">
-        <v>1065.791123314981</v>
+        <v>1193.991627649059</v>
       </c>
       <c r="AC2" t="n">
-        <v>964.073514353035</v>
+        <v>1080.038742484007</v>
       </c>
       <c r="AD2" t="n">
-        <v>778948.0767074839</v>
+        <v>872645.1756037064</v>
       </c>
       <c r="AE2" t="n">
-        <v>1065791.123314981</v>
+        <v>1193991.627649059</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.198215142443172e-06</v>
+        <v>2.207630562491606e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.92746913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>964073.514353035</v>
+        <v>1080038.742484007</v>
       </c>
     </row>
     <row r="3">
@@ -25539,28 +25539,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>572.1602789457098</v>
+        <v>656.3937930122812</v>
       </c>
       <c r="AB3" t="n">
-        <v>782.8549355835421</v>
+        <v>898.1069456497947</v>
       </c>
       <c r="AC3" t="n">
-        <v>708.1403592752509</v>
+        <v>812.3928792579926</v>
       </c>
       <c r="AD3" t="n">
-        <v>572160.2789457098</v>
+        <v>656393.7930122812</v>
       </c>
       <c r="AE3" t="n">
-        <v>782854.9355835421</v>
+        <v>898106.9456497948</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.420433434977526e-06</v>
+        <v>2.617052774552164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.96836419753086</v>
       </c>
       <c r="AH3" t="n">
-        <v>708140.3592752509</v>
+        <v>812392.8792579926</v>
       </c>
     </row>
     <row r="4">
@@ -25645,28 +25645,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.0466877757473</v>
+        <v>595.9020473757903</v>
       </c>
       <c r="AB4" t="n">
-        <v>712.919065172305</v>
+        <v>815.3394705624785</v>
       </c>
       <c r="AC4" t="n">
-        <v>644.8790701804518</v>
+        <v>737.524615828129</v>
       </c>
       <c r="AD4" t="n">
-        <v>521046.6877757473</v>
+        <v>595902.0473757903</v>
       </c>
       <c r="AE4" t="n">
-        <v>712919.065172305</v>
+        <v>815339.4705624785</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.479515282595786e-06</v>
+        <v>2.725907092838106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.32793209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>644879.0701804517</v>
+        <v>737524.615828129</v>
       </c>
     </row>
     <row r="5">
@@ -25751,28 +25751,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>522.4451423280183</v>
+        <v>597.3005019280612</v>
       </c>
       <c r="AB5" t="n">
-        <v>714.8324923861827</v>
+        <v>817.2528977763562</v>
       </c>
       <c r="AC5" t="n">
-        <v>646.6098825865489</v>
+        <v>739.2554282342261</v>
       </c>
       <c r="AD5" t="n">
-        <v>522445.1423280183</v>
+        <v>597300.5019280611</v>
       </c>
       <c r="AE5" t="n">
-        <v>714832.4923861827</v>
+        <v>817252.8977763562</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.48163164728659e-06</v>
+        <v>2.729806352000587e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.30864197530864</v>
       </c>
       <c r="AH5" t="n">
-        <v>646609.8825865489</v>
+        <v>739255.4282342261</v>
       </c>
     </row>
   </sheetData>
@@ -26048,28 +26048,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1013.465847938659</v>
+        <v>1120.231913734014</v>
       </c>
       <c r="AB2" t="n">
-        <v>1386.668684107344</v>
+        <v>1532.750725514942</v>
       </c>
       <c r="AC2" t="n">
-        <v>1254.32697109786</v>
+        <v>1386.46714750095</v>
       </c>
       <c r="AD2" t="n">
-        <v>1013465.847938659</v>
+        <v>1120231.913734014</v>
       </c>
       <c r="AE2" t="n">
-        <v>1386668.684107344</v>
+        <v>1532750.725514942</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.048517864366349e-06</v>
+        <v>1.873100645659589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.82561728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>1254326.97109786</v>
+        <v>1386467.14750095</v>
       </c>
     </row>
     <row r="3">
@@ -26154,28 +26154,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>712.6444727270177</v>
+        <v>799.9830100405675</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.0716072403435</v>
+        <v>1094.57204709707</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.0121415669204</v>
+        <v>990.1076271636416</v>
       </c>
       <c r="AD3" t="n">
-        <v>712644.4727270177</v>
+        <v>799983.0100405675</v>
       </c>
       <c r="AE3" t="n">
-        <v>975071.6072403435</v>
+        <v>1094572.04709707</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.298011345938649e-06</v>
+        <v>2.318802542883204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.82484567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>882012.1415669203</v>
+        <v>990107.6271636416</v>
       </c>
     </row>
     <row r="4">
@@ -26260,28 +26260,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>621.7492312199651</v>
+        <v>699.4593451471841</v>
       </c>
       <c r="AB4" t="n">
-        <v>850.7047277953518</v>
+        <v>957.0311339988399</v>
       </c>
       <c r="AC4" t="n">
-        <v>769.5146625461468</v>
+        <v>865.6934257716224</v>
       </c>
       <c r="AD4" t="n">
-        <v>621749.231219965</v>
+        <v>699459.3451471841</v>
       </c>
       <c r="AE4" t="n">
-        <v>850704.7277953518</v>
+        <v>957031.1339988399</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.391288400755153e-06</v>
+        <v>2.485435194113811e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.69444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>769514.6625461469</v>
+        <v>865693.4257716225</v>
       </c>
     </row>
     <row r="5">
@@ -26366,28 +26366,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>568.2130347077137</v>
+        <v>636.2094739025815</v>
       </c>
       <c r="AB5" t="n">
-        <v>777.4541418769903</v>
+        <v>870.4898697745908</v>
       </c>
       <c r="AC5" t="n">
-        <v>703.2550097399909</v>
+        <v>787.4115383435085</v>
       </c>
       <c r="AD5" t="n">
-        <v>568213.0347077138</v>
+        <v>636209.4739025815</v>
       </c>
       <c r="AE5" t="n">
-        <v>777454.1418769903</v>
+        <v>870489.8697745908</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.44353034347095e-06</v>
+        <v>2.578761612248429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.12731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>703255.0097399909</v>
+        <v>787411.5383435085</v>
       </c>
     </row>
     <row r="6">
@@ -26472,28 +26472,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>566.0027503480727</v>
+        <v>633.9991895429404</v>
       </c>
       <c r="AB6" t="n">
-        <v>774.4299333052655</v>
+        <v>867.4656612028659</v>
       </c>
       <c r="AC6" t="n">
-        <v>700.519427389848</v>
+        <v>784.6759559933657</v>
       </c>
       <c r="AD6" t="n">
-        <v>566002.7503480727</v>
+        <v>633999.1895429404</v>
       </c>
       <c r="AE6" t="n">
-        <v>774429.9333052655</v>
+        <v>867465.6612028659</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.445284948264222e-06</v>
+        <v>2.581896085663568e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.10802469135802</v>
       </c>
       <c r="AH6" t="n">
-        <v>700519.427389848</v>
+        <v>784675.9559933657</v>
       </c>
     </row>
   </sheetData>
